--- a/Lab_3/Segway_files/Outputs/output10.xlsx
+++ b/Lab_3/Segway_files/Outputs/output10.xlsx
@@ -409,28 +409,28 @@
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
-        <v>747.7065269041498</v>
+        <v>12917.45189228746</v>
       </c>
       <c r="C2">
-        <v>849.604577607309</v>
+        <v>13123.71676376345</v>
       </c>
       <c r="D2">
-        <v>-0.005906632746543109</v>
+        <v>0.001877836124842764</v>
       </c>
       <c r="E2">
-        <v>-1.007038622442421</v>
+        <v>-1.010163061712287</v>
       </c>
       <c r="F2">
-        <v>0.01641877347950303</v>
+        <v>0.009732460449118272</v>
       </c>
       <c r="G2">
-        <v>255.06</v>
+        <v>7019.27</v>
       </c>
       <c r="H2">
-        <v>799.89</v>
+        <v>12999.95</v>
       </c>
       <c r="I2">
-        <v>-0.00152</v>
+        <v>0.000626</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,782 +438,782 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
-        <v>734.5874934197559</v>
+        <v>13403.35345820498</v>
       </c>
       <c r="C3">
-        <v>802.6725642073478</v>
+        <v>13402.74721562198</v>
       </c>
       <c r="D3">
-        <v>-0.1022239638613874</v>
+        <v>-0.1851166074411681</v>
       </c>
       <c r="E3">
-        <v>-0.9981115450166264</v>
+        <v>-1.012236049336843</v>
       </c>
       <c r="F3">
-        <v>-0.04210540179867793</v>
+        <v>-0.02073405858116185</v>
       </c>
       <c r="G3">
-        <v>259.1615577618759</v>
+        <v>7060.449679431335</v>
       </c>
       <c r="H3">
-        <v>799.8837656274006</v>
+        <v>12999.97577848269</v>
       </c>
       <c r="I3">
-        <v>-0.01454083333333333</v>
+        <v>-0.02157329245283019</v>
       </c>
       <c r="J3">
-        <v>-0.1041666666666667</v>
+        <v>-0.1775943396226415</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>734.8785575321914</v>
+        <v>12742.20302504208</v>
       </c>
       <c r="C4">
-        <v>828.9831930851417</v>
+        <v>13281.54606094287</v>
       </c>
       <c r="D4">
-        <v>-0.2059971626245033</v>
+        <v>-0.3548638275957242</v>
       </c>
       <c r="E4">
-        <v>-0.9672799741145878</v>
+        <v>-0.9809534993370436</v>
       </c>
       <c r="F4">
-        <v>-0.05736452568850701</v>
+        <v>-0.04516997034846872</v>
       </c>
       <c r="G4">
-        <v>267.3638155598679</v>
+        <v>7142.789889861981</v>
       </c>
       <c r="H4">
-        <v>799.7644895572727</v>
+        <v>12998.19915341601</v>
       </c>
       <c r="I4">
-        <v>-0.0405825</v>
+        <v>-0.06597187735849057</v>
       </c>
       <c r="J4">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>725.8735716671417</v>
+        <v>12416.52093690321</v>
       </c>
       <c r="C5">
-        <v>808.7243678905394</v>
+        <v>13083.3251943721</v>
       </c>
       <c r="D5">
-        <v>-0.3085087918177224</v>
+        <v>-0.5358727382337279</v>
       </c>
       <c r="E5">
-        <v>-1.014592266443544</v>
+        <v>-0.976533110169892</v>
       </c>
       <c r="F5">
-        <v>-0.1175138507237334</v>
+        <v>-0.1754205797006009</v>
       </c>
       <c r="G5">
-        <v>279.6583719136835</v>
+        <v>7266.060211026361</v>
       </c>
       <c r="H5">
-        <v>799.2652716334081</v>
+        <v>12990.05496018342</v>
       </c>
       <c r="I5">
-        <v>-0.07964499999999999</v>
+        <v>-0.1325697547169811</v>
       </c>
       <c r="J5">
-        <v>-0.3125</v>
+        <v>-0.5327830188679246</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>695.879915358561</v>
+        <v>12859.76966716824</v>
       </c>
       <c r="C6">
-        <v>808.9084477960808</v>
+        <v>13394.2315523563</v>
       </c>
       <c r="D6">
-        <v>-0.4178050564793678</v>
+        <v>-0.7155822046304979</v>
       </c>
       <c r="E6">
-        <v>-0.9992670592615627</v>
+        <v>-1.019475354430175</v>
       </c>
       <c r="F6">
-        <v>-0.1190655673315124</v>
+        <v>-0.2002479617750556</v>
       </c>
       <c r="G6">
-        <v>296.0126143178677</v>
+        <v>7429.333635065595</v>
       </c>
       <c r="H6">
-        <v>797.959976859158</v>
+        <v>12968.28214217411</v>
       </c>
       <c r="I6">
-        <v>-0.1317283333333333</v>
+        <v>-0.2213669245283019</v>
       </c>
       <c r="J6">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>691.5370104742929</v>
+        <v>12972.2061333212</v>
       </c>
       <c r="C7">
-        <v>795.3115842052097</v>
+        <v>13657.51705044024</v>
       </c>
       <c r="D7">
-        <v>-0.5183503009085081</v>
+        <v>-0.8872655368427861</v>
       </c>
       <c r="E7">
-        <v>-0.9556597013038793</v>
+        <v>-0.9413593776384239</v>
       </c>
       <c r="F7">
-        <v>-0.181577445870507</v>
+        <v>-0.3254229986166404</v>
       </c>
       <c r="G7">
-        <v>316.3427545511546</v>
+        <v>7630.207787130643</v>
       </c>
       <c r="H7">
-        <v>795.2663229040173</v>
+        <v>12923.07438181054</v>
       </c>
       <c r="I7">
-        <v>-0.1968325</v>
+        <v>-0.3323633867924528</v>
       </c>
       <c r="J7">
-        <v>-0.5208333333333334</v>
+        <v>-0.8879716981132075</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>673.3958627343669</v>
+        <v>13711.05340293612</v>
       </c>
       <c r="C8">
-        <v>822.5015454132631</v>
+        <v>14059.6501629222</v>
       </c>
       <c r="D8">
-        <v>-0.6278814867456838</v>
+        <v>-1.066869927307578</v>
       </c>
       <c r="E8">
-        <v>-0.9776834280003527</v>
+        <v>-0.8889156701179541</v>
       </c>
       <c r="F8">
-        <v>-0.2707527238912514</v>
+        <v>-0.4739705588716451</v>
       </c>
       <c r="G8">
-        <v>340.4769457847912</v>
+        <v>7863.764280842671</v>
       </c>
       <c r="H8">
-        <v>790.4536156213244</v>
+        <v>12842.45822897217</v>
       </c>
       <c r="I8">
-        <v>-0.2749575</v>
+        <v>-0.4655591415094339</v>
       </c>
       <c r="J8">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>653.1209425713629</v>
+        <v>14794.21397120733</v>
       </c>
       <c r="C9">
-        <v>860.6475364070391</v>
+        <v>14141.62636470849</v>
       </c>
       <c r="D9">
-        <v>-0.6198437589448486</v>
+        <v>-1.061509837553019</v>
       </c>
       <c r="E9">
-        <v>-0.9200470634759034</v>
+        <v>-0.8257123300230901</v>
       </c>
       <c r="F9">
-        <v>-0.3399310674853145</v>
+        <v>-0.555671515609987</v>
       </c>
       <c r="G9">
-        <v>364.1619123718003</v>
+        <v>8084.54605249483</v>
       </c>
       <c r="H9">
-        <v>783.7720218247154</v>
+        <v>12731.53929839831</v>
       </c>
       <c r="I9">
-        <v>-0.3530825</v>
+        <v>-0.5987548962264151</v>
       </c>
       <c r="J9">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>710.760290080877</v>
+        <v>15383.71305563388</v>
       </c>
       <c r="C10">
-        <v>825.3929421312409</v>
+        <v>12819.67883376243</v>
       </c>
       <c r="D10">
-        <v>-0.6267684085179447</v>
+        <v>-1.062041239803169</v>
       </c>
       <c r="E10">
-        <v>-0.918794283623943</v>
+        <v>-0.7461687381999785</v>
       </c>
       <c r="F10">
-        <v>-0.4157282509242325</v>
+        <v>-0.6603883634212782</v>
       </c>
       <c r="G10">
-        <v>387.2531662613966</v>
+        <v>8288.641976036881</v>
       </c>
       <c r="H10">
-        <v>775.2623019881503</v>
+        <v>12592.28250737169</v>
       </c>
       <c r="I10">
-        <v>-0.4312075</v>
+        <v>-0.7319506509433962</v>
       </c>
       <c r="J10">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>705.975305544844</v>
+        <v>16440.89203034315</v>
       </c>
       <c r="C11">
-        <v>838.7566717505756</v>
+        <v>11218.4186030382</v>
       </c>
       <c r="D11">
-        <v>-0.626404327338499</v>
+        <v>-1.056159167336369</v>
       </c>
       <c r="E11">
-        <v>-0.8758882007671234</v>
+        <v>-0.6454186527398895</v>
       </c>
       <c r="F11">
-        <v>-0.4967130449860619</v>
+        <v>-0.7474576830980145</v>
       </c>
       <c r="G11">
-        <v>409.609841294768</v>
+        <v>8472.436513476989</v>
       </c>
       <c r="H11">
-        <v>764.9763689073427</v>
+        <v>12427.15477541641</v>
       </c>
       <c r="I11">
-        <v>-0.5093325</v>
+        <v>-0.8651464056603773</v>
       </c>
       <c r="J11">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>705.944164653455</v>
+        <v>14404.87312403659</v>
       </c>
       <c r="C12">
-        <v>766.6972184872999</v>
+        <v>10056.62379607105</v>
       </c>
       <c r="D12">
-        <v>-0.6284986355343372</v>
+        <v>-1.061043208812584</v>
       </c>
       <c r="E12">
-        <v>-0.8127370775880933</v>
+        <v>-0.5281123158386465</v>
       </c>
       <c r="F12">
-        <v>-0.5604773905906871</v>
+        <v>-0.8397455090601446</v>
       </c>
       <c r="G12">
-        <v>431.0955525466605</v>
+        <v>8632.673763760033</v>
       </c>
       <c r="H12">
-        <v>752.976971010326</v>
+        <v>12239.08132307599</v>
       </c>
       <c r="I12">
-        <v>-0.5874575</v>
+        <v>-0.9983421603773583</v>
       </c>
       <c r="J12">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>663.816037466531</v>
+        <v>13191.98078507272</v>
       </c>
       <c r="C13">
-        <v>729.8884645803377</v>
+        <v>9507.019799436224</v>
       </c>
       <c r="D13">
-        <v>-0.6188545230274076</v>
+        <v>-1.067687235806275</v>
       </c>
       <c r="E13">
-        <v>-0.7763848119861347</v>
+        <v>-0.4433373825485418</v>
       </c>
       <c r="F13">
-        <v>-0.5991350709893927</v>
+        <v>-0.898762339206518</v>
       </c>
       <c r="G13">
-        <v>451.5792283295914</v>
+        <v>8766.515140715104</v>
       </c>
       <c r="H13">
-        <v>739.3373095661993</v>
+        <v>12031.39385193658</v>
       </c>
       <c r="I13">
-        <v>-0.6655825</v>
+        <v>-1.131537915094339</v>
       </c>
       <c r="J13">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>711.4541313896426</v>
+        <v>12548.86537734901</v>
       </c>
       <c r="C14">
-        <v>702.1307711268651</v>
+        <v>9506.929245424082</v>
       </c>
       <c r="D14">
-        <v>-0.629234299230949</v>
+        <v>-1.060584824489444</v>
       </c>
       <c r="E14">
-        <v>-0.7072557431180257</v>
+        <v>-0.3048007605349098</v>
       </c>
       <c r="F14">
-        <v>-0.6782056376235904</v>
+        <v>-0.9487333819742767</v>
       </c>
       <c r="G14">
-        <v>470.9359097851251</v>
+        <v>8871.589658313367</v>
       </c>
       <c r="H14">
-        <v>724.1405921272383</v>
+        <v>11807.77152388097</v>
       </c>
       <c r="I14">
-        <v>-0.7437075</v>
+        <v>-1.264733669811321</v>
       </c>
       <c r="J14">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>754.7556361958461</v>
+        <v>11572.53915884296</v>
       </c>
       <c r="C15">
-        <v>682.5657085094026</v>
+        <v>9080.27158727473</v>
       </c>
       <c r="D15">
-        <v>-0.6262187651407303</v>
+        <v>-1.068028624715798</v>
       </c>
       <c r="E15">
-        <v>-0.6858565008439457</v>
+        <v>-0.1547555683971944</v>
       </c>
       <c r="F15">
-        <v>-0.747726485031079</v>
+        <v>-0.9734125924627224</v>
       </c>
       <c r="G15">
-        <v>489.0475131843735</v>
+        <v>8946.035932438192</v>
       </c>
       <c r="H15">
-        <v>707.4795249285575</v>
+        <v>11572.17578511975</v>
       </c>
       <c r="I15">
-        <v>-0.8218325</v>
+        <v>-1.397929424528302</v>
       </c>
       <c r="J15">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>769.9846986194251</v>
+        <v>11439.19670358689</v>
       </c>
       <c r="C16">
-        <v>645.5214128309441</v>
+        <v>9001.864768513607</v>
       </c>
       <c r="D16">
-        <v>-0.6249340275696528</v>
+        <v>-1.069119352964794</v>
       </c>
       <c r="E16">
-        <v>-0.6153940459299065</v>
+        <v>-0.04637664976720707</v>
       </c>
       <c r="F16">
-        <v>-0.7677642627183325</v>
+        <v>-1.018555397466931</v>
       </c>
       <c r="G16">
-        <v>505.8035502873745</v>
+        <v>8988.535155110574</v>
       </c>
       <c r="H16">
-        <v>689.4557473418949</v>
+        <v>11328.78018958491</v>
       </c>
       <c r="I16">
-        <v>-0.8999575</v>
+        <v>-1.531125179245283</v>
       </c>
       <c r="J16">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
-        <v>783.3183630260714</v>
+        <v>11189.97757594652</v>
       </c>
       <c r="C17">
-        <v>642.9241940425203</v>
+        <v>8867.859814309384</v>
       </c>
       <c r="D17">
-        <v>-0.6180083127437023</v>
+        <v>-1.069814577802291</v>
       </c>
       <c r="E17">
-        <v>-0.5562711080696715</v>
+        <v>0.1136675436262116</v>
       </c>
       <c r="F17">
-        <v>-0.8343693974039511</v>
+        <v>-1.005811519098467</v>
       </c>
       <c r="G17">
-        <v>521.1018023668605</v>
+        <v>8998.3344570349</v>
       </c>
       <c r="H17">
-        <v>670.1792118335852</v>
+        <v>11081.89646485743</v>
       </c>
       <c r="I17">
-        <v>-0.9780825</v>
+        <v>4.618864373217322</v>
       </c>
       <c r="J17">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
-        <v>754.4343632845939</v>
+        <v>11369.81979016881</v>
       </c>
       <c r="C18">
-        <v>621.8655260187059</v>
+        <v>9050.081981423809</v>
       </c>
       <c r="D18">
-        <v>-0.6258688051840234</v>
+        <v>-1.06873087363723</v>
       </c>
       <c r="E18">
-        <v>-0.4797238948623699</v>
+        <v>0.2183609875052344</v>
       </c>
       <c r="F18">
-        <v>-0.8742645702879644</v>
+        <v>-0.9832321174706595</v>
       </c>
       <c r="G18">
-        <v>534.848943784593</v>
+        <v>8975.260244599958</v>
       </c>
       <c r="H18">
-        <v>649.7675132092303</v>
+        <v>10835.89813036302</v>
       </c>
       <c r="I18">
-        <v>-1.0562075</v>
+        <v>4.485668618500341</v>
       </c>
       <c r="J18">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19">
-        <v>693.8390473333062</v>
+        <v>11290.5616897341</v>
       </c>
       <c r="C19">
-        <v>617.7414006450699</v>
+        <v>9981.745361180852</v>
       </c>
       <c r="D19">
-        <v>-0.6210362282732619</v>
+        <v>-1.059039104399401</v>
       </c>
       <c r="E19">
-        <v>-0.4383501237199647</v>
+        <v>0.354608292702788</v>
       </c>
       <c r="F19">
-        <v>-0.9035929540948494</v>
+        <v>-0.9320817079820455</v>
       </c>
       <c r="G19">
-        <v>546.9611113161917</v>
+        <v>8919.721275071659</v>
       </c>
       <c r="H19">
-        <v>628.3451712369549</v>
+        <v>10595.14302093178</v>
       </c>
       <c r="I19">
-        <v>-1.1343325</v>
+        <v>4.35247286378336</v>
       </c>
       <c r="J19">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20">
-        <v>649.0609914600926</v>
+        <v>11518.0984721292</v>
       </c>
       <c r="C20">
-        <v>624.6119538816703</v>
+        <v>9863.66423399783</v>
       </c>
       <c r="D20">
-        <v>-0.6323402238712692</v>
+        <v>-1.066215740866395</v>
       </c>
       <c r="E20">
-        <v>-0.3636120657779748</v>
+        <v>0.4250804928973618</v>
       </c>
       <c r="F20">
-        <v>-0.9186675433803837</v>
+        <v>-0.9022215982008874</v>
       </c>
       <c r="G20">
-        <v>557.3644157513428</v>
+        <v>8832.701415500709</v>
       </c>
       <c r="H20">
-        <v>606.0428710255375</v>
+        <v>10363.89608820884</v>
       </c>
       <c r="I20">
-        <v>-1.2124575</v>
+        <v>4.219277109066379</v>
       </c>
       <c r="J20">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21">
-        <v>620.7415013066274</v>
+        <v>12775.12891092442</v>
       </c>
       <c r="C21">
-        <v>594.8104383359338</v>
+        <v>10847.54146786982</v>
       </c>
       <c r="D21">
-        <v>-0.6291228941031749</v>
+        <v>-1.05615423285066</v>
       </c>
       <c r="E21">
-        <v>-0.2153734015187805</v>
+        <v>0.6207784662561049</v>
       </c>
       <c r="F21">
-        <v>-0.9699371966752628</v>
+        <v>-0.8468187247246275</v>
       </c>
       <c r="G21">
-        <v>565.9953926484122</v>
+        <v>8715.742213620462</v>
       </c>
       <c r="H21">
-        <v>582.996665791424</v>
+        <v>10146.25384748096</v>
       </c>
       <c r="I21">
-        <v>-1.2905825</v>
+        <v>4.086081354349398</v>
       </c>
       <c r="J21">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22">
-        <v>578.8407132583121</v>
+        <v>11918.4690856296</v>
       </c>
       <c r="C22">
-        <v>571.4277140165757</v>
+        <v>11942.48139300808</v>
       </c>
       <c r="D22">
-        <v>-0.6219206365022837</v>
+        <v>-1.066866495535134</v>
       </c>
       <c r="E22">
-        <v>-0.1991718366184766</v>
+        <v>0.6545870180142425</v>
       </c>
       <c r="F22">
-        <v>-0.9931512887164019</v>
+        <v>-0.700230672086025</v>
       </c>
       <c r="G22">
-        <v>572.8013894936778</v>
+        <v>8570.915589489654</v>
       </c>
       <c r="H22">
-        <v>559.3471468780748</v>
+        <v>9946.071808335619</v>
       </c>
       <c r="I22">
-        <v>-1.3687075</v>
+        <v>3.952885599632417</v>
       </c>
       <c r="J22">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23">
-        <v>526.9657352486837</v>
+        <v>10785.34766009972</v>
       </c>
       <c r="C23">
-        <v>580.4567478642714</v>
+        <v>13057.46971662425</v>
       </c>
       <c r="D23">
-        <v>-0.6234007371484758</v>
+        <v>-1.063019555903783</v>
       </c>
       <c r="E23">
-        <v>-0.1365488334725567</v>
+        <v>0.7763750618084466</v>
       </c>
       <c r="F23">
-        <v>-0.9970050785871175</v>
+        <v>-0.6142074522872032</v>
       </c>
       <c r="G23">
-        <v>577.7408869033476</v>
+        <v>8400.787131644725</v>
       </c>
       <c r="H23">
-        <v>535.2385860908671</v>
+        <v>9766.896174710893</v>
       </c>
       <c r="I23">
-        <v>-1.4468325</v>
+        <v>3.819689844915436</v>
       </c>
       <c r="J23">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24">
-        <v>542.2522335072414</v>
+        <v>9908.205999299911</v>
       </c>
       <c r="C24">
-        <v>553.7937187509726</v>
+        <v>12354.81619000073</v>
       </c>
       <c r="D24">
-        <v>-0.5179933251443829</v>
+        <v>-0.8870967878906575</v>
       </c>
       <c r="E24">
-        <v>-0.08819564718838747</v>
+        <v>0.8457105088941244</v>
       </c>
       <c r="F24">
-        <v>-1.020995272911332</v>
+        <v>-0.5152155493548263</v>
       </c>
       <c r="G24">
-        <v>580.2766077413087</v>
+        <v>8240.440061912934</v>
       </c>
       <c r="H24">
-        <v>514.8881439981978</v>
+        <v>9637.733549337416</v>
       </c>
       <c r="I24">
-        <v>-1.511936666666667</v>
+        <v>3.708693382651285</v>
       </c>
       <c r="J24">
-        <v>-0.5208333333333334</v>
+        <v>-0.8879716981132075</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25">
-        <v>518.6853718921296</v>
+        <v>9297.852805127763</v>
       </c>
       <c r="C25">
-        <v>606.9728547621776</v>
+        <v>11716.73853114704</v>
       </c>
       <c r="D25">
-        <v>-0.4246490530368664</v>
+        <v>-0.7148302804761137</v>
       </c>
       <c r="E25">
-        <v>-0.01400787616097174</v>
+        <v>0.8803062062876089</v>
       </c>
       <c r="F25">
-        <v>-0.971148360022416</v>
+        <v>-0.4585049847901622</v>
       </c>
       <c r="G25">
-        <v>581.2417165515543</v>
+        <v>8101.506059870691</v>
       </c>
       <c r="H25">
-        <v>498.5103051894024</v>
+        <v>9549.248467667741</v>
       </c>
       <c r="I25">
-        <v>-1.56402</v>
+        <v>3.619896212839964</v>
       </c>
       <c r="J25">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26">
-        <v>455.8714242577526</v>
+        <v>8562.229615277134</v>
       </c>
       <c r="C26">
-        <v>592.3459084451176</v>
+        <v>11435.81846336422</v>
       </c>
       <c r="D26">
-        <v>-0.3111924628939846</v>
+        <v>-0.532965346427974</v>
       </c>
       <c r="E26">
-        <v>0.02923009458725143</v>
+        <v>0.927517421977742</v>
       </c>
       <c r="F26">
-        <v>-0.9790203089090618</v>
+        <v>-0.3620370197920337</v>
       </c>
       <c r="G26">
-        <v>581.3250964970448</v>
+        <v>7991.830918237632</v>
       </c>
       <c r="H26">
-        <v>486.2059001953628</v>
+        <v>9492.386676708016</v>
       </c>
       <c r="I26">
-        <v>4.680102807179586</v>
+        <v>3.553298335481474</v>
       </c>
       <c r="J26">
-        <v>-0.3125</v>
+        <v>-0.5327830188679246</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27">
-        <v>495.958468766923</v>
+        <v>8517.50370202317</v>
       </c>
       <c r="C27">
-        <v>575.1288732727951</v>
+        <v>11293.47999993216</v>
       </c>
       <c r="D27">
-        <v>-0.207168106610836</v>
+        <v>-0.35781469939159</v>
       </c>
       <c r="E27">
-        <v>0.07654247109856471</v>
+        <v>0.9191688415446509</v>
       </c>
       <c r="F27">
-        <v>-0.9748138009263595</v>
+        <v>-0.3573069857900479</v>
       </c>
       <c r="G27">
-        <v>581.0602949927818</v>
+        <v>7916.353526518262</v>
       </c>
       <c r="H27">
-        <v>478.0070502803463</v>
+        <v>9459.428673285003</v>
       </c>
       <c r="I27">
-        <v>4.654061140512919</v>
+        <v>3.508899750575813</v>
       </c>
       <c r="J27">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28">
-        <v>460.8850840299449</v>
+        <v>8383.856268401407</v>
       </c>
       <c r="C28">
-        <v>588.1864869625425</v>
+        <v>11703.95230872853</v>
       </c>
       <c r="D28">
-        <v>-0.1095155063738803</v>
+        <v>-0.1786289473309105</v>
       </c>
       <c r="E28">
-        <v>0.07020734821504325</v>
+        <v>0.9688580078792058</v>
       </c>
       <c r="F28">
-        <v>-0.9972284512681691</v>
+        <v>-0.3508582518376455</v>
       </c>
       <c r="G28">
-        <v>580.8211953408472</v>
+        <v>7877.920616448875</v>
       </c>
       <c r="H28">
-        <v>473.9124628410735</v>
+        <v>9444.64090515739</v>
       </c>
       <c r="I28">
-        <v>4.641040307179586</v>
+        <v>3.486700458122983</v>
       </c>
       <c r="J28">
-        <v>-0.1041666666666667</v>
+        <v>-0.1775943396226415</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29">
-        <v>462.4274173601002</v>
+        <v>8211.479529372678</v>
       </c>
       <c r="C29">
-        <v>550.0944398126601</v>
+        <v>11349.07705684687</v>
       </c>
       <c r="D29">
-        <v>0.01124356709481701</v>
+        <v>0.002489394489260304</v>
       </c>
       <c r="E29">
-        <v>0.07744916150924123</v>
+        <v>0.9504045091383052</v>
       </c>
       <c r="F29">
-        <v>-0.988493927348718</v>
+        <v>-0.3303822411740669</v>
       </c>
       <c r="G29">
-        <v>580.8211953408472</v>
+        <v>7877.920616448875</v>
       </c>
       <c r="H29">
-        <v>473.9124628410735</v>
+        <v>9444.64090515739</v>
       </c>
       <c r="I29">
-        <v>4.641040307179586</v>
+        <v>3.486700458122983</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1221,782 +1221,782 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30">
-        <v>473.6082322041657</v>
+        <v>8276.489843256704</v>
       </c>
       <c r="C30">
-        <v>581.9090493192791</v>
+        <v>11189.65225788843</v>
       </c>
       <c r="D30">
-        <v>-0.2074012519973956</v>
+        <v>-0.3554051586731015</v>
       </c>
       <c r="E30">
-        <v>0.1146420484939089</v>
+        <v>0.9493886514454197</v>
       </c>
       <c r="F30">
-        <v>-1.012344448263988</v>
+        <v>-0.2559773021801762</v>
       </c>
       <c r="G30">
-        <v>580.570572925762</v>
+        <v>7844.704880919201</v>
       </c>
       <c r="H30">
-        <v>470.4057824242573</v>
+        <v>9432.700038438916</v>
       </c>
       <c r="I30">
-        <v>4.614998640512919</v>
+        <v>3.442301873217323</v>
       </c>
       <c r="J30">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31">
-        <v>446.2520855752812</v>
+        <v>7909.957161446529</v>
       </c>
       <c r="C31">
-        <v>557.7761189588072</v>
+        <v>11200.48470693989</v>
       </c>
       <c r="D31">
-        <v>-0.4170568508375838</v>
+        <v>-0.7126742799278528</v>
       </c>
       <c r="E31">
-        <v>0.1532250795183193</v>
+        <v>1.009172342435763</v>
       </c>
       <c r="F31">
-        <v>-0.9195967564996099</v>
+        <v>-0.2316839450795632</v>
       </c>
       <c r="G31">
-        <v>579.8868790878483</v>
+        <v>7777.278908254325</v>
       </c>
       <c r="H31">
-        <v>463.4078513515403</v>
+        <v>9411.790333771994</v>
       </c>
       <c r="I31">
-        <v>4.562915307179586</v>
+        <v>3.353504703406002</v>
       </c>
       <c r="J31">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32">
-        <v>457.4783161538506</v>
+        <v>7682.625069886752</v>
       </c>
       <c r="C32">
-        <v>583.6466668219045</v>
+        <v>10832.69590072173</v>
       </c>
       <c r="D32">
-        <v>-0.626500274058079</v>
+        <v>-1.063365068302424</v>
       </c>
       <c r="E32">
-        <v>0.204521892992145</v>
+        <v>0.960776248848665</v>
       </c>
       <c r="F32">
-        <v>-0.9605419065500778</v>
+        <v>-0.07672429666780017</v>
       </c>
       <c r="G32">
-        <v>578.3162627724817</v>
+        <v>7673.756999201531</v>
       </c>
       <c r="H32">
-        <v>452.9785782869624</v>
+        <v>9389.51840505094</v>
       </c>
       <c r="I32">
-        <v>4.484790307179586</v>
+        <v>3.220308948689021</v>
       </c>
       <c r="J32">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33">
-        <v>439.2540414395465</v>
+        <v>7699.399012309561</v>
       </c>
       <c r="C33">
-        <v>613.8664611480094</v>
+        <v>10419.89161207623</v>
       </c>
       <c r="D33">
-        <v>-0.8394983770505013</v>
+        <v>-1.417634916970091</v>
       </c>
       <c r="E33">
-        <v>0.3486395103351056</v>
+        <v>0.9633938509336478</v>
       </c>
       <c r="F33">
-        <v>-0.9303083451642983</v>
+        <v>0.1015794571495221</v>
       </c>
       <c r="G33">
-        <v>575.1432174670166</v>
+        <v>7533.006690270424</v>
       </c>
       <c r="H33">
-        <v>439.2787355966442</v>
+        <v>9378.416121860188</v>
       </c>
       <c r="I33">
-        <v>4.380623640512919</v>
+        <v>3.042714609066379</v>
       </c>
       <c r="J33">
-        <v>-0.8333333333333334</v>
+        <v>-1.420754716981132</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>469.0288349295259</v>
+        <v>7613.257310696216</v>
       </c>
       <c r="C34">
-        <v>626.2605252335634</v>
+        <v>10953.36910492529</v>
       </c>
       <c r="D34">
-        <v>-1.046736454850679</v>
+        <v>-1.779469325713718</v>
       </c>
       <c r="E34">
-        <v>0.469787435490179</v>
+        <v>0.9899756165763366</v>
       </c>
       <c r="F34">
-        <v>-0.8757628074678326</v>
+        <v>0.3294958121780467</v>
       </c>
       <c r="G34">
-        <v>569.4178005142396</v>
+        <v>7357.384344789671</v>
       </c>
       <c r="H34">
-        <v>422.6591664315762</v>
+        <v>9395.838130555505</v>
       </c>
       <c r="I34">
-        <v>4.250415307179586</v>
+        <v>2.820721684538078</v>
       </c>
       <c r="J34">
-        <v>-1.041666666666667</v>
+        <v>-1.775943396226415</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35">
-        <v>477.7043219857781</v>
+        <v>8691.374242079759</v>
       </c>
       <c r="C35">
-        <v>680.1887541775509</v>
+        <v>12391.25773923277</v>
       </c>
       <c r="D35">
-        <v>-1.257314960377251</v>
+        <v>-2.128193272480773</v>
       </c>
       <c r="E35">
-        <v>0.540080990957991</v>
+        <v>0.7918080939343494</v>
       </c>
       <c r="F35">
-        <v>-0.7711887979463156</v>
+        <v>0.5656257405798063</v>
       </c>
       <c r="G35">
-        <v>560.0159837872167</v>
+        <v>7156.412180994077</v>
       </c>
       <c r="H35">
-        <v>403.7765783861315</v>
+        <v>9462.632495818449</v>
       </c>
       <c r="I35">
-        <v>4.094165307179586</v>
+        <v>2.554330175104115</v>
       </c>
       <c r="J35">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36">
-        <v>554.2185513634558</v>
+        <v>10745.92095108898</v>
       </c>
       <c r="C36">
-        <v>749.6647405010981</v>
+        <v>15647.0690790379</v>
       </c>
       <c r="D36">
-        <v>-1.246190574273607</v>
+        <v>-2.133385981061577</v>
       </c>
       <c r="E36">
-        <v>0.7077393059166234</v>
+        <v>0.655635932049944</v>
       </c>
       <c r="F36">
-        <v>-0.6802072451268208</v>
+        <v>0.7299652941263091</v>
       </c>
       <c r="G36">
-        <v>547.7902882218423</v>
+        <v>6980.112631601261</v>
       </c>
       <c r="H36">
-        <v>386.5870857523948</v>
+        <v>9579.977145187104</v>
       </c>
       <c r="I36">
-        <v>3.937915307179586</v>
+        <v>2.287938665670153</v>
       </c>
       <c r="J36">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37">
-        <v>596.5187061991877</v>
+        <v>11453.74313199731</v>
       </c>
       <c r="C37">
-        <v>760.841518613585</v>
+        <v>14498.84503958054</v>
       </c>
       <c r="D37">
-        <v>-1.245728014997471</v>
+        <v>-2.126792292288707</v>
       </c>
       <c r="E37">
-        <v>0.7933363519601088</v>
+        <v>0.4352304375890121</v>
       </c>
       <c r="F37">
-        <v>-0.6361940686469418</v>
+        <v>0.9086297210432911</v>
       </c>
       <c r="G37">
-        <v>533.0385859508592</v>
+        <v>6840.92288321767</v>
       </c>
       <c r="H37">
-        <v>371.509500761065</v>
+        <v>9739.593910586214</v>
       </c>
       <c r="I37">
-        <v>3.781665307179586</v>
+        <v>2.021547156236191</v>
       </c>
       <c r="J37">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38">
-        <v>571.9361875221474</v>
+        <v>10304.07803279367</v>
       </c>
       <c r="C38">
-        <v>722.3843635409359</v>
+        <v>13596.92893017343</v>
       </c>
       <c r="D38">
-        <v>-1.250860479194055</v>
+        <v>-2.139707511683226</v>
       </c>
       <c r="E38">
-        <v>0.8799603181269313</v>
+        <v>0.1793581915758317</v>
       </c>
       <c r="F38">
-        <v>-0.4658840693159188</v>
+        <v>0.9960451185754515</v>
       </c>
       <c r="G38">
-        <v>516.1202938265479</v>
+        <v>6748.662183143211</v>
       </c>
       <c r="H38">
-        <v>358.9111802119218</v>
+        <v>9930.222505170903</v>
       </c>
       <c r="I38">
-        <v>3.625415307179586</v>
+        <v>1.755155646802229</v>
       </c>
       <c r="J38">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39">
-        <v>515.9782368898142</v>
+        <v>9826.601016285218</v>
       </c>
       <c r="C39">
-        <v>718.330342720937</v>
+        <v>13176.44862926475</v>
       </c>
       <c r="D39">
-        <v>-1.25296201031954</v>
+        <v>-2.134319720929147</v>
       </c>
       <c r="E39">
-        <v>0.9671040954172314</v>
+        <v>-0.06878171817839922</v>
       </c>
       <c r="F39">
-        <v>-0.3576807331972304</v>
+        <v>1.033254080627853</v>
       </c>
       <c r="G39">
-        <v>497.4476164331372</v>
+        <v>6709.839133057352</v>
       </c>
       <c r="H39">
-        <v>349.0990750339232</v>
+        <v>10138.41488887788</v>
       </c>
       <c r="I39">
-        <v>3.469165307179586</v>
+        <v>1.488764137368267</v>
       </c>
       <c r="J39">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
-        <v>464.1907067167544</v>
+        <v>10412.16459790429</v>
       </c>
       <c r="C40">
-        <v>661.9163545796744</v>
+        <v>13980.61330672952</v>
       </c>
       <c r="D40">
-        <v>-1.246212237228676</v>
+        <v>-2.126516691245169</v>
       </c>
       <c r="E40">
-        <v>0.9972890742851981</v>
+        <v>-0.3658740920951971</v>
       </c>
       <c r="F40">
-        <v>-0.1596481784493169</v>
+        <v>0.9391726173827233</v>
       </c>
       <c r="G40">
-        <v>477.4755029560906</v>
+        <v>6727.192534733621</v>
       </c>
       <c r="H40">
-        <v>342.312251600057</v>
+        <v>10349.4839707014</v>
       </c>
       <c r="I40">
-        <v>3.312915307179586</v>
+        <v>1.222372627934305</v>
       </c>
       <c r="J40">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41">
-        <v>465.2241592275947</v>
+        <v>11371.05590284136</v>
       </c>
       <c r="C41">
-        <v>697.9920407941577</v>
+        <v>16105.343049737</v>
       </c>
       <c r="D41">
-        <v>-1.251118993927826</v>
+        <v>-2.118822192777906</v>
       </c>
       <c r="E41">
-        <v>1.012908891519112</v>
+        <v>-0.5551438697721177</v>
       </c>
       <c r="F41">
-        <v>-0.04750088741195477</v>
+        <v>0.8382130432460964</v>
       </c>
       <c r="G41">
-        <v>456.6905626034469</v>
+        <v>6799.498179172915</v>
       </c>
       <c r="H41">
-        <v>338.7160670108649</v>
+        <v>10548.539720766</v>
       </c>
       <c r="I41">
-        <v>3.156665307179586</v>
+        <v>0.9559811185003423</v>
       </c>
       <c r="J41">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42">
-        <v>466.0554981165373</v>
+        <v>14256.29692503205</v>
       </c>
       <c r="C42">
-        <v>664.5525503569665</v>
+        <v>13768.9282873525</v>
       </c>
       <c r="D42">
-        <v>-1.254246578706842</v>
+        <v>-2.1266264115475</v>
       </c>
       <c r="E42">
-        <v>1.008471000882738</v>
+        <v>-0.7855560028471261</v>
       </c>
       <c r="F42">
-        <v>0.1410352159773676</v>
+        <v>0.6586075672197207</v>
       </c>
       <c r="G42">
-        <v>435.5992086486813</v>
+        <v>6921.655209364041</v>
       </c>
       <c r="H42">
-        <v>338.3981402625496</v>
+        <v>10721.53959887708</v>
       </c>
       <c r="I42">
-        <v>3.000415307179586</v>
+        <v>0.68958960906638</v>
       </c>
       <c r="J42">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43">
-        <v>419.3834216634932</v>
+        <v>14020.11482177809</v>
       </c>
       <c r="C43">
-        <v>676.8897026730311</v>
+        <v>12088.92965960265</v>
       </c>
       <c r="D43">
-        <v>-1.248780607644506</v>
+        <v>-2.125852251664831</v>
       </c>
       <c r="E43">
-        <v>0.9832063506023505</v>
+        <v>-0.9128732505419244</v>
       </c>
       <c r="F43">
-        <v>0.2943657378231884</v>
+        <v>0.41284832624361</v>
       </c>
       <c r="G43">
-        <v>414.7153199587544</v>
+        <v>7085.045964144456</v>
       </c>
       <c r="H43">
-        <v>341.3662174598683</v>
+        <v>10856.27919626348</v>
       </c>
       <c r="I43">
-        <v>2.844165307179586</v>
+        <v>0.4231980996324177</v>
       </c>
       <c r="J43">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44">
-        <v>417.7139747756793</v>
+        <v>12739.20542190756</v>
       </c>
       <c r="C44">
-        <v>725.0245844951461</v>
+        <v>11022.95432712195</v>
       </c>
       <c r="D44">
-        <v>-1.247505576160772</v>
+        <v>-2.133924992939449</v>
       </c>
       <c r="E44">
-        <v>0.8544648337802629</v>
+        <v>-0.9947227982562988</v>
       </c>
       <c r="F44">
-        <v>0.4356932845510935</v>
+        <v>0.1657304638859246</v>
       </c>
       <c r="G44">
-        <v>394.547720627213</v>
+        <v>7278.143917700732</v>
       </c>
       <c r="H44">
-        <v>347.5479830866865</v>
+        <v>10943.25320493239</v>
       </c>
       <c r="I44">
-        <v>2.687915307179586</v>
+        <v>0.1568065901984554</v>
       </c>
       <c r="J44">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45">
-        <v>460.646526290193</v>
+        <v>12856.63148919373</v>
       </c>
       <c r="C45">
-        <v>769.2587879808383</v>
+        <v>11008.43342301775</v>
       </c>
       <c r="D45">
-        <v>-1.259704471391609</v>
+        <v>-2.123307420971839</v>
       </c>
       <c r="E45">
-        <v>0.8001927828454836</v>
+        <v>-1.005804931988929</v>
       </c>
       <c r="F45">
-        <v>0.5634937720644221</v>
+        <v>-0.1401263109526799</v>
       </c>
       <c r="G45">
-        <v>375.5877827639764</v>
+        <v>7487.326827151518</v>
       </c>
       <c r="H45">
-        <v>356.7928219324806</v>
+        <v>10976.32597689464</v>
       </c>
       <c r="I45">
-        <v>2.531665307179586</v>
+        <v>-0.1095849192355068</v>
       </c>
       <c r="J45">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46">
-        <v>479.5777785431806</v>
+        <v>13029.35106598438</v>
       </c>
       <c r="C46">
-        <v>844.5678734635319</v>
+        <v>11844.5750634029</v>
       </c>
       <c r="D46">
-        <v>-1.2515591224476</v>
+        <v>-2.13846048384383</v>
       </c>
       <c r="E46">
-        <v>0.7493313458114327</v>
+        <v>-0.9014873762909844</v>
       </c>
       <c r="F46">
-        <v>0.6861381362991814</v>
+        <v>-0.3553592749225261</v>
       </c>
       <c r="G46">
-        <v>358.2974544927969</v>
+        <v>7697.837724094576</v>
       </c>
       <c r="H46">
-        <v>368.8754887464481</v>
+        <v>10953.16436814671</v>
       </c>
       <c r="I46">
-        <v>2.375415307179586</v>
+        <v>-0.3759764286694691</v>
       </c>
       <c r="J46">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47">
-        <v>582.9752843239778</v>
+        <v>15327.19081346728</v>
       </c>
       <c r="C47">
-        <v>812.449991694952</v>
+        <v>13489.92981235573</v>
       </c>
       <c r="D47">
-        <v>-1.253443344199933</v>
+        <v>-2.131454054474597</v>
       </c>
       <c r="E47">
-        <v>0.6266878719304919</v>
+        <v>-0.8174917250074886</v>
       </c>
       <c r="F47">
-        <v>0.7844613975246467</v>
+        <v>-0.5684829934948508</v>
       </c>
       <c r="G47">
-        <v>343.0980048474419</v>
+        <v>7894.825956233924</v>
       </c>
       <c r="H47">
-        <v>383.5015962101863</v>
+        <v>10875.4023320997</v>
       </c>
       <c r="I47">
-        <v>2.219165307179586</v>
+        <v>-0.6423679381034314</v>
       </c>
       <c r="J47">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="48" spans="2:10">
       <c r="B48">
-        <v>680.6970560507059</v>
+        <v>13610.29529945676</v>
       </c>
       <c r="C48">
-        <v>765.2153637797583</v>
+        <v>10126.35238850321</v>
       </c>
       <c r="D48">
-        <v>-1.249786625537797</v>
+        <v>-2.132927200165727</v>
       </c>
       <c r="E48">
-        <v>0.4427700491535309</v>
+        <v>-0.6659359068238984</v>
       </c>
       <c r="F48">
-        <v>0.9115849982068078</v>
+        <v>-0.7918504737060779</v>
       </c>
       <c r="G48">
-        <v>330.3597597908122</v>
+        <v>8064.394838008943</v>
       </c>
       <c r="H48">
-        <v>400.3147875176017</v>
+        <v>10748.52565108569</v>
       </c>
       <c r="I48">
-        <v>2.062915307179586</v>
+        <v>-0.9087594475373937</v>
       </c>
       <c r="J48">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="B49">
-        <v>607.0389878588003</v>
+        <v>11555.59569680259</v>
       </c>
       <c r="C49">
-        <v>695.8734907230478</v>
+        <v>8969.507973645195</v>
       </c>
       <c r="D49">
-        <v>-1.244731634087941</v>
+        <v>-2.126476428594605</v>
       </c>
       <c r="E49">
-        <v>0.328115296517458</v>
+        <v>-0.3665139522270907</v>
       </c>
       <c r="F49">
-        <v>0.9452056900330813</v>
+        <v>-0.9453269080102132</v>
       </c>
       <c r="G49">
-        <v>320.3930794330649</v>
+        <v>8194.582002910218</v>
       </c>
       <c r="H49">
-        <v>418.9054188062103</v>
+        <v>10581.48493764573</v>
       </c>
       <c r="I49">
-        <v>1.906665307179586</v>
+        <v>-1.175150956971356</v>
       </c>
       <c r="J49">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50">
-        <v>600.08037420639</v>
+        <v>10433.85675355854</v>
       </c>
       <c r="C50">
-        <v>702.9572920894032</v>
+        <v>8597.010342710961</v>
       </c>
       <c r="D50">
-        <v>-1.245137871921379</v>
+        <v>-2.12973638589844</v>
       </c>
       <c r="E50">
-        <v>0.2012660166605614</v>
+        <v>-0.1376864265558034</v>
       </c>
       <c r="F50">
-        <v>1.012470185677731</v>
+        <v>-0.9568034998521977</v>
       </c>
       <c r="G50">
-        <v>313.4407962837005</v>
+        <v>8276.203297777867</v>
       </c>
       <c r="H50">
-        <v>438.82053989732</v>
+        <v>10386.06420671963</v>
       </c>
       <c r="I50">
-        <v>1.750415307179586</v>
+        <v>-1.441542466405318</v>
       </c>
       <c r="J50">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51">
-        <v>536.1480017055785</v>
+        <v>10451.96196743764</v>
       </c>
       <c r="C51">
-        <v>666.4758995426047</v>
+        <v>8211.517582391743</v>
       </c>
       <c r="D51">
-        <v>-1.04466921128294</v>
+        <v>-1.781614073726635</v>
       </c>
       <c r="E51">
-        <v>0.0278454151226573</v>
+        <v>0.08691138770625008</v>
       </c>
       <c r="F51">
-        <v>0.9960006463842739</v>
+        <v>-0.9725778409007028</v>
       </c>
       <c r="G51">
-        <v>310.3003816933737</v>
+        <v>8298.951121224158</v>
       </c>
       <c r="H51">
-        <v>456.115865124574</v>
+        <v>10211.05200386624</v>
       </c>
       <c r="I51">
-        <v>1.620206973846253</v>
+        <v>4.619649916245966</v>
       </c>
       <c r="J51">
-        <v>-1.041666666666667</v>
+        <v>-1.775943396226415</v>
       </c>
     </row>
     <row r="52" spans="2:10">
       <c r="B52">
-        <v>515.3851781862289</v>
+        <v>10487.39264689209</v>
       </c>
       <c r="C52">
-        <v>737.0258517524517</v>
+        <v>8848.222044680824</v>
       </c>
       <c r="D52">
-        <v>-0.8348322710004575</v>
+        <v>-1.417440412179624</v>
       </c>
       <c r="E52">
-        <v>-0.08271861523815499</v>
+        <v>0.2445271964504053</v>
       </c>
       <c r="F52">
-        <v>1.013491308238484</v>
+        <v>-0.9672069591791858</v>
       </c>
       <c r="G52">
-        <v>309.6058271653639</v>
+        <v>8285.876285190556</v>
       </c>
       <c r="H52">
-        <v>470.1612024383455</v>
+        <v>10070.4712127924</v>
       </c>
       <c r="I52">
-        <v>1.516040307179586</v>
+        <v>4.442055576623325</v>
       </c>
       <c r="J52">
-        <v>-0.8333333333333334</v>
+        <v>-1.420754716981132</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53">
-        <v>545.7142950385976</v>
+        <v>10828.97256902943</v>
       </c>
       <c r="C53">
-        <v>677.8377380330435</v>
+        <v>8833.090319256889</v>
       </c>
       <c r="D53">
-        <v>-0.6269176020904517</v>
+        <v>-1.060251916755528</v>
       </c>
       <c r="E53">
-        <v>-0.1369122973192049</v>
+        <v>0.448422833812784</v>
       </c>
       <c r="F53">
-        <v>0.9717097073446651</v>
+        <v>-0.913801717279027</v>
       </c>
       <c r="G53">
-        <v>310.1830435217198</v>
+        <v>8257.597902934511</v>
       </c>
       <c r="H53">
-        <v>480.692270453679</v>
+        <v>9968.42633266669</v>
       </c>
       <c r="I53">
-        <v>1.437915307179586</v>
+        <v>4.308859821906344</v>
       </c>
       <c r="J53">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54">
-        <v>483.2920424054832</v>
+        <v>11114.5225350012</v>
       </c>
       <c r="C54">
-        <v>675.3387330330577</v>
+        <v>9404.318970338254</v>
       </c>
       <c r="D54">
-        <v>-0.4106739952827432</v>
+        <v>-0.7028994531103018</v>
       </c>
       <c r="E54">
-        <v>-0.1766286615250574</v>
+        <v>0.4873341134160133</v>
       </c>
       <c r="F54">
-        <v>1.003349528473465</v>
+        <v>-0.9064494114608821</v>
       </c>
       <c r="G54">
-        <v>311.1146160134452</v>
+        <v>8229.878103563671</v>
       </c>
       <c r="H54">
-        <v>487.6615350673352</v>
+        <v>9903.502606172418</v>
       </c>
       <c r="I54">
-        <v>1.385831973846253</v>
+        <v>4.220062652095023</v>
       </c>
       <c r="J54">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="55" spans="2:10">
       <c r="B55">
-        <v>544.964985557271</v>
+        <v>11361.77638153501</v>
       </c>
       <c r="C55">
-        <v>708.5427210284241</v>
+        <v>9778.180206169391</v>
       </c>
       <c r="D55">
-        <v>-0.2075638764808542</v>
+        <v>-0.3642813438084561</v>
       </c>
       <c r="E55">
-        <v>-0.2329766153889837</v>
+        <v>0.4759279876712682</v>
       </c>
       <c r="F55">
-        <v>0.9719046180329116</v>
+        <v>-0.8276669708967718</v>
       </c>
       <c r="G55">
-        <v>311.7611798617615</v>
+        <v>8213.194075211324</v>
       </c>
       <c r="H55">
-        <v>491.1171933737474</v>
+        <v>9872.397741879133</v>
       </c>
       <c r="I55">
-        <v>1.359790307179586</v>
+        <v>4.175664067189363</v>
       </c>
       <c r="J55">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56">
-        <v>494.970617090913</v>
+        <v>11373.41782474933</v>
       </c>
       <c r="C56">
-        <v>725.8775777442144</v>
+        <v>9538.335479186191</v>
       </c>
       <c r="D56">
-        <v>0.006970275606756416</v>
+        <v>-0.00336408845351061</v>
       </c>
       <c r="E56">
-        <v>-0.2128950242472888</v>
+        <v>0.534346580283769</v>
       </c>
       <c r="F56">
-        <v>0.9532394668244629</v>
+        <v>-0.8414808995368873</v>
       </c>
       <c r="G56">
-        <v>311.7611798617615</v>
+        <v>8213.194075211324</v>
       </c>
       <c r="H56">
-        <v>491.1171933737474</v>
+        <v>9872.397741879133</v>
       </c>
       <c r="I56">
-        <v>1.359790307179586</v>
+        <v>4.175664067189363</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2004,753 +2004,753 @@
     </row>
     <row r="57" spans="2:10">
       <c r="B57">
-        <v>508.7276936257754</v>
+        <v>11622.43964868774</v>
       </c>
       <c r="C57">
-        <v>708.6221815891535</v>
+        <v>9943.924691855644</v>
       </c>
       <c r="D57">
-        <v>-0.305735643424262</v>
+        <v>-0.5212986494079844</v>
       </c>
       <c r="E57">
-        <v>-0.2767097435915494</v>
+        <v>0.5553399875546158</v>
       </c>
       <c r="F57">
-        <v>0.9710770216978765</v>
+        <v>-0.8454513233356462</v>
       </c>
       <c r="G57">
-        <v>312.3747844881565</v>
+        <v>8198.153954148607</v>
       </c>
       <c r="H57">
-        <v>493.981902470693</v>
+        <v>9847.119651936007</v>
       </c>
       <c r="I57">
-        <v>1.320727807179586</v>
+        <v>4.109066189830872</v>
       </c>
       <c r="J57">
-        <v>-0.3125</v>
+        <v>-0.5327830188679246</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="B58">
-        <v>523.22425104901</v>
+        <v>12385.40484417552</v>
       </c>
       <c r="C58">
-        <v>715.0859509997471</v>
+        <v>11185.25341386612</v>
       </c>
       <c r="D58">
-        <v>-0.6350714510565877</v>
+        <v>-1.063253211220948</v>
       </c>
       <c r="E58">
-        <v>-0.291096309708576</v>
+        <v>0.700238176309732</v>
       </c>
       <c r="F58">
-        <v>0.9405090955940929</v>
+        <v>-0.7552969070907347</v>
       </c>
       <c r="G58">
-        <v>313.8248060595243</v>
+        <v>8164.775948540016</v>
       </c>
       <c r="H58">
-        <v>499.6590243500605</v>
+        <v>9798.677345708822</v>
       </c>
       <c r="I58">
-        <v>1.242602807179586</v>
+        <v>3.975870435113891</v>
       </c>
       <c r="J58">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="59" spans="2:10">
       <c r="B59">
-        <v>544.6881554073291</v>
+        <v>9822.02047328269</v>
       </c>
       <c r="C59">
-        <v>745.7683125593026</v>
+        <v>13011.9480294028</v>
       </c>
       <c r="D59">
-        <v>-0.9365875080172295</v>
+        <v>-1.599818584613147</v>
       </c>
       <c r="E59">
-        <v>-0.4097188010219748</v>
+        <v>0.7982918058594758</v>
       </c>
       <c r="F59">
-        <v>0.8696870702826114</v>
+        <v>-0.6106412700141083</v>
       </c>
       <c r="G59">
-        <v>316.6578152810706</v>
+        <v>8105.502534142098</v>
       </c>
       <c r="H59">
-        <v>507.9789809833333</v>
+        <v>9733.306511230458</v>
       </c>
       <c r="I59">
-        <v>1.125415307179586</v>
+        <v>3.77607680303842</v>
       </c>
       <c r="J59">
-        <v>-0.9375</v>
+        <v>-1.598349056603774</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60">
-        <v>587.3874492236182</v>
+        <v>8818.895635759549</v>
       </c>
       <c r="C60">
-        <v>826.7425044598307</v>
+        <v>11088.19327757334</v>
       </c>
       <c r="D60">
-        <v>-1.25049547193043</v>
+        <v>-2.133441506336804</v>
       </c>
       <c r="E60">
-        <v>-0.581782996692939</v>
+        <v>0.9389064026741606</v>
       </c>
       <c r="F60">
-        <v>0.8216379360789384</v>
+        <v>-0.3666109421601595</v>
       </c>
       <c r="G60">
-        <v>321.7062734226529</v>
+        <v>8010.744828210841</v>
       </c>
       <c r="H60">
-        <v>518.5545269245692</v>
+        <v>9663.564340840458</v>
       </c>
       <c r="I60">
-        <v>0.969165307179586</v>
+        <v>3.509685293604457</v>
       </c>
       <c r="J60">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61">
-        <v>672.4867011086096</v>
+        <v>7815.199390904985</v>
       </c>
       <c r="C61">
-        <v>732.8032137124756</v>
+        <v>10296.73225973966</v>
       </c>
       <c r="D61">
-        <v>-1.551094780009523</v>
+        <v>-2.663774593342053</v>
       </c>
       <c r="E61">
-        <v>-0.7338135956548497</v>
+        <v>0.9908294931494752</v>
       </c>
       <c r="F61">
-        <v>0.7051284505603332</v>
+        <v>-0.05668778771553781</v>
       </c>
       <c r="G61">
-        <v>329.9971112205653</v>
+        <v>7873.525964695228</v>
       </c>
       <c r="H61">
-        <v>530.6308976459454</v>
+        <v>9610.64307560302</v>
       </c>
       <c r="I61">
-        <v>0.773852807179586</v>
+        <v>3.176695906812005</v>
       </c>
       <c r="J61">
-        <v>-1.5625</v>
+        <v>-2.663915094339623</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62">
-        <v>774.0121508515833</v>
+        <v>8223.665069501112</v>
       </c>
       <c r="C62">
-        <v>610.108277651947</v>
+        <v>11388.20976727948</v>
       </c>
       <c r="D62">
-        <v>-1.870405253432976</v>
+        <v>-3.196745085847782</v>
       </c>
       <c r="E62">
-        <v>-0.8633010156068797</v>
+        <v>0.9418665337848838</v>
       </c>
       <c r="F62">
-        <v>0.5155676848371532</v>
+        <v>0.3535307650501237</v>
       </c>
       <c r="G62">
-        <v>342.5693953168044</v>
+        <v>7697.150313940796</v>
       </c>
       <c r="H62">
-        <v>542.9161795360396</v>
+        <v>9604.449172141463</v>
       </c>
       <c r="I62">
-        <v>0.539477807179586</v>
+        <v>2.777108642661061</v>
       </c>
       <c r="J62">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63">
-        <v>655.1423601693838</v>
+        <v>10266.38652217579</v>
       </c>
       <c r="C63">
-        <v>576.3355661974116</v>
+        <v>13956.69461763448</v>
       </c>
       <c r="D63">
-        <v>-1.879125162923968</v>
+        <v>-3.199822027195707</v>
       </c>
       <c r="E63">
-        <v>-0.9587267613193102</v>
+        <v>0.717887020183881</v>
       </c>
       <c r="F63">
-        <v>0.3059652736357441</v>
+        <v>0.6678868367135945</v>
       </c>
       <c r="G63">
-        <v>357.6510230175779</v>
+        <v>7532.259582493085</v>
       </c>
       <c r="H63">
-        <v>551.9458519780991</v>
+        <v>9667.360071847153</v>
       </c>
       <c r="I63">
-        <v>0.305102807179586</v>
+        <v>2.377521378510118</v>
       </c>
       <c r="J63">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64">
-        <v>604.3327850440171</v>
+        <v>11050.54201983318</v>
       </c>
       <c r="C64">
-        <v>548.6057597171152</v>
+        <v>13865.44144523107</v>
       </c>
       <c r="D64">
-        <v>-1.873418523014669</v>
+        <v>-3.192940849549364</v>
       </c>
       <c r="E64">
-        <v>-1.01713875770384</v>
+        <v>0.3808681994629134</v>
       </c>
       <c r="F64">
-        <v>0.07945794200776642</v>
+        <v>0.8921106963943035</v>
       </c>
       <c r="G64">
-        <v>374.4173212150266</v>
+        <v>7404.833412347224</v>
       </c>
       <c r="H64">
-        <v>557.2261666723058</v>
+        <v>9789.463740019321</v>
       </c>
       <c r="I64">
-        <v>0.07072780717958604</v>
+        <v>1.977934114359175</v>
       </c>
       <c r="J64">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65">
-        <v>610.8884078972478</v>
+        <v>10193.88664260193</v>
       </c>
       <c r="C65">
-        <v>516.5697061781519</v>
+        <v>12472.65495527269</v>
       </c>
       <c r="D65">
-        <v>-1.872232889541617</v>
+        <v>-3.19855742866437</v>
       </c>
       <c r="E65">
-        <v>-1.023936907696741</v>
+        <v>-0.005985261612196762</v>
       </c>
       <c r="F65">
-        <v>-0.1516145179415026</v>
+        <v>0.9950051483733268</v>
       </c>
       <c r="G65">
-        <v>391.9514979344304</v>
+        <v>7334.948652287462</v>
       </c>
       <c r="H65">
-        <v>558.4683926132443</v>
+        <v>9951.521923800734</v>
       </c>
       <c r="I65">
-        <v>-0.163647192820414</v>
+        <v>1.578346850208231</v>
       </c>
       <c r="J65">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66">
-        <v>624.1516994765043</v>
+        <v>10566.54235617743</v>
       </c>
       <c r="C66">
-        <v>622.4996008063064</v>
+        <v>13634.28520605619</v>
       </c>
       <c r="D66">
-        <v>-1.88304100292506</v>
+        <v>-3.191992088635355</v>
       </c>
       <c r="E66">
-        <v>-0.9245794105206517</v>
+        <v>-0.3470094266532248</v>
       </c>
       <c r="F66">
-        <v>-0.4092854359795962</v>
+        <v>0.9318719094362038</v>
       </c>
       <c r="G66">
-        <v>409.2947731093514</v>
+        <v>7333.616115543431</v>
       </c>
       <c r="H66">
-        <v>555.6046040870791</v>
+        <v>10128.00126810189</v>
       </c>
       <c r="I66">
-        <v>-0.398022192820414</v>
+        <v>1.178759586057288</v>
       </c>
       <c r="J66">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67">
-        <v>700.9298916500593</v>
+        <v>13962.19449298042</v>
       </c>
       <c r="C67">
-        <v>681.9881141204478</v>
+        <v>14373.02940247379</v>
       </c>
       <c r="D67">
-        <v>-1.880385999283112</v>
+        <v>-3.196657969654347</v>
       </c>
       <c r="E67">
-        <v>-0.8472659361858504</v>
+        <v>-0.7195050564978934</v>
       </c>
       <c r="F67">
-        <v>-0.5994249154955577</v>
+        <v>0.7281005456678199</v>
       </c>
       <c r="G67">
-        <v>425.4988052926507</v>
+        <v>7401.045752227252</v>
       </c>
       <c r="H67">
-        <v>548.7913948932979</v>
+        <v>10291.09626715406</v>
       </c>
       <c r="I67">
-        <v>-0.632397192820414</v>
+        <v>0.7791723219063442</v>
       </c>
       <c r="J67">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68">
-        <v>712.3405482976418</v>
+        <v>13658.94038285284</v>
       </c>
       <c r="C68">
-        <v>599.7377763942829</v>
+        <v>11492.24484364241</v>
       </c>
       <c r="D68">
-        <v>-1.877500867891378</v>
+        <v>-3.198710430373474</v>
       </c>
       <c r="E68">
-        <v>-0.657417666968671</v>
+        <v>-0.9215121933904237</v>
       </c>
       <c r="F68">
-        <v>-0.7792003907692336</v>
+        <v>0.3651789393595362</v>
       </c>
       <c r="G68">
-        <v>439.677547577086</v>
+        <v>7526.613570283539</v>
       </c>
       <c r="H68">
-        <v>538.4013156949861</v>
+        <v>10415.11020865954</v>
       </c>
       <c r="I68">
-        <v>-0.866772192820414</v>
+        <v>0.3795850577554008</v>
       </c>
       <c r="J68">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69">
-        <v>577.9669874176625</v>
+        <v>12413.02871504003</v>
       </c>
       <c r="C69">
-        <v>459.5160921288349</v>
+        <v>10474.6548506651</v>
       </c>
       <c r="D69">
-        <v>-1.877026155525491</v>
+        <v>-3.191308933762795</v>
       </c>
       <c r="E69">
-        <v>-0.4338137280771273</v>
+        <v>-0.9987707055837789</v>
       </c>
       <c r="F69">
-        <v>-0.8858234432562823</v>
+        <v>-0.04375785866570726</v>
       </c>
       <c r="G69">
-        <v>451.0556972103795</v>
+        <v>7690.535516778751</v>
       </c>
       <c r="H69">
-        <v>525.0025027088292</v>
+        <v>10480.50386336977</v>
       </c>
       <c r="I69">
-        <v>-1.101147192820414</v>
+        <v>-0.02000220639554262</v>
       </c>
       <c r="J69">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70">
-        <v>535.2580307245421</v>
+        <v>13627.97257580215</v>
       </c>
       <c r="C70">
-        <v>467.0003716860889</v>
+        <v>11765.04920267458</v>
       </c>
       <c r="D70">
-        <v>-1.881643294442285</v>
+        <v>-3.202467198661048</v>
       </c>
       <c r="E70">
-        <v>-0.230923521832207</v>
+        <v>-0.8971986657150132</v>
       </c>
       <c r="F70">
-        <v>-0.9690558177639005</v>
+        <v>-0.396047803821064</v>
       </c>
       <c r="G70">
-        <v>459.0110896486276</v>
+        <v>7866.984588292501</v>
       </c>
       <c r="H70">
-        <v>509.3276116511826</v>
+        <v>10476.97402186112</v>
       </c>
       <c r="I70">
-        <v>-1.335522192820414</v>
+        <v>-0.419589470546486</v>
       </c>
       <c r="J70">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71">
-        <v>515.7636014768032</v>
+        <v>13949.01651276866</v>
       </c>
       <c r="C71">
-        <v>432.8779190077112</v>
+        <v>10980.08064479725</v>
       </c>
       <c r="D71">
-        <v>-1.883525689925073</v>
+        <v>-3.201100111425294</v>
       </c>
       <c r="E71">
-        <v>0.003128122169716555</v>
+        <v>-0.6789717636384535</v>
       </c>
       <c r="F71">
-        <v>-0.9583364865823215</v>
+        <v>-0.7182895191829894</v>
       </c>
       <c r="G71">
-        <v>463.1087189139309</v>
+        <v>8028.160048737001</v>
       </c>
       <c r="H71">
-        <v>492.2337556520303</v>
+        <v>10405.07683436644</v>
       </c>
       <c r="I71">
-        <v>-1.569897192820414</v>
+        <v>-0.8191767346974295</v>
       </c>
       <c r="J71">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72">
-        <v>509.8107604919275</v>
+        <v>10960.92052384682</v>
       </c>
       <c r="C72">
-        <v>527.9421770448278</v>
+        <v>8616.710583976899</v>
       </c>
       <c r="D72">
-        <v>-1.870631708932074</v>
+        <v>-3.198768932531876</v>
       </c>
       <c r="E72">
-        <v>0.2640783576197471</v>
+        <v>-0.3330652844948196</v>
       </c>
       <c r="F72">
-        <v>-1.007003646797349</v>
+        <v>-0.9308706096614532</v>
       </c>
       <c r="G72">
-        <v>463.1245240011965</v>
+        <v>8148.667622012043</v>
       </c>
       <c r="H72">
-        <v>474.6556377574762</v>
+        <v>10276.14018557138</v>
       </c>
       <c r="I72">
-        <v>4.478913114359172</v>
+        <v>-1.218763998848373</v>
       </c>
       <c r="J72">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73">
-        <v>469.0075118821562</v>
+        <v>10187.606921278</v>
       </c>
       <c r="C73">
-        <v>495.9158954386907</v>
+        <v>8781.894651316676</v>
       </c>
       <c r="D73">
-        <v>-1.874280874267228</v>
+        <v>-3.200528315791979</v>
       </c>
       <c r="E73">
-        <v>0.4389351300526901</v>
+        <v>0.04711682833610561</v>
       </c>
       <c r="F73">
-        <v>-0.9197165646191465</v>
+        <v>-0.9808922841784815</v>
       </c>
       <c r="G73">
-        <v>459.057640678082</v>
+        <v>8209.520530729356</v>
       </c>
       <c r="H73">
-        <v>457.5544407656923</v>
+        <v>10110.47891031436</v>
       </c>
       <c r="I73">
-        <v>4.244538114359172</v>
+        <v>4.66483404418027</v>
       </c>
       <c r="J73">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74">
-        <v>549.1635852564808</v>
+        <v>11019.37206693552</v>
       </c>
       <c r="C74">
-        <v>580.6655100630778</v>
+        <v>9278.373041153594</v>
       </c>
       <c r="D74">
-        <v>-1.873411025136856</v>
+        <v>-3.197185770398982</v>
       </c>
       <c r="E74">
-        <v>0.6568449669965181</v>
+        <v>0.4421098884095901</v>
       </c>
       <c r="F74">
-        <v>-0.7587071185639644</v>
+        <v>-0.9173436689744545</v>
       </c>
       <c r="G74">
-        <v>451.1304487417761</v>
+        <v>8201.130990487973</v>
       </c>
       <c r="H74">
-        <v>441.8652691329836</v>
+        <v>9934.194054941927</v>
       </c>
       <c r="I74">
-        <v>4.010163114359172</v>
+        <v>4.265246780029327</v>
       </c>
       <c r="J74">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75">
-        <v>520.8013700168847</v>
+        <v>10732.08820594247</v>
       </c>
       <c r="C75">
-        <v>735.5434636372366</v>
+        <v>12431.61556833873</v>
       </c>
       <c r="D75">
-        <v>-1.872513581271359</v>
+        <v>-3.196544352949428</v>
       </c>
       <c r="E75">
-        <v>0.7817039227142005</v>
+        <v>0.7567243625331255</v>
       </c>
       <c r="F75">
-        <v>-0.5704388574291115</v>
+        <v>-0.6574794968763603</v>
       </c>
       <c r="G75">
-        <v>439.7764121485847</v>
+        <v>8124.820829689414</v>
       </c>
       <c r="H75">
-        <v>428.4460168603682</v>
+        <v>9775.060482186085</v>
       </c>
       <c r="I75">
-        <v>3.775788114359172</v>
+        <v>3.865659515878384</v>
       </c>
       <c r="J75">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76">
-        <v>497.837425902384</v>
+        <v>8245.738857380604</v>
       </c>
       <c r="C76">
-        <v>604.4197267930624</v>
+        <v>11082.00741145202</v>
       </c>
       <c r="D76">
-        <v>-1.877873700388083</v>
+        <v>-3.200358974067671</v>
       </c>
       <c r="E76">
-        <v>0.9023639952075985</v>
+        <v>0.9190900107202906</v>
       </c>
       <c r="F76">
-        <v>-0.357871751757301</v>
+        <v>-0.3063686555009539</v>
       </c>
       <c r="G76">
-        <v>425.6163769258615</v>
+        <v>7992.61322659683</v>
       </c>
       <c r="H76">
-        <v>418.030457297538</v>
+        <v>9658.150755030238</v>
       </c>
       <c r="I76">
-        <v>3.541413114359172</v>
+        <v>3.46607225172744</v>
       </c>
       <c r="J76">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77">
-        <v>400.0901295914571</v>
+        <v>7922.706688182286</v>
       </c>
       <c r="C77">
-        <v>550.8085369684565</v>
+        <v>10920.33998230825</v>
       </c>
       <c r="D77">
-        <v>-1.556690307532115</v>
+        <v>-2.660402138993657</v>
       </c>
       <c r="E77">
-        <v>0.9865257082068727</v>
+        <v>1.004598041978425</v>
       </c>
       <c r="F77">
-        <v>-0.2012663707211014</v>
+        <v>0.009014982359398831</v>
       </c>
       <c r="G77">
-        <v>412.1232485807367</v>
+        <v>7853.217518485274</v>
       </c>
       <c r="H77">
-        <v>412.3285095028456</v>
+        <v>9611.262447543982</v>
       </c>
       <c r="I77">
-        <v>3.346100614359172</v>
+        <v>3.133082864934988</v>
       </c>
       <c r="J77">
-        <v>-1.5625</v>
+        <v>-2.663915094339623</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78">
-        <v>410.0041738178306</v>
+        <v>7931.772358869858</v>
       </c>
       <c r="C78">
-        <v>595.0034115010704</v>
+        <v>11053.66548010867</v>
       </c>
       <c r="D78">
-        <v>-1.252231786198119</v>
+        <v>-2.128611713787832</v>
       </c>
       <c r="E78">
-        <v>1.01787782756861</v>
+        <v>0.9934602922652945</v>
       </c>
       <c r="F78">
-        <v>-0.09891585966403313</v>
+        <v>0.2601475837336933</v>
       </c>
       <c r="G78">
-        <v>400.6487052718195</v>
+        <v>7735.565528586653</v>
       </c>
       <c r="H78">
-        <v>409.9486024848542</v>
+        <v>9612.263665281183</v>
       </c>
       <c r="I78">
-        <v>3.189850614359172</v>
+        <v>2.866691355501025</v>
       </c>
       <c r="J78">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79">
-        <v>398.8750712234495</v>
+        <v>8607.194556034176</v>
       </c>
       <c r="C79">
-        <v>541.0818486119251</v>
+        <v>11440.83051951342</v>
       </c>
       <c r="D79">
-        <v>-0.9373485455642186</v>
+        <v>-1.602886423867613</v>
       </c>
       <c r="E79">
-        <v>1.024903989473329</v>
+        <v>0.8759437202115855</v>
       </c>
       <c r="F79">
-        <v>0.07721281922602813</v>
+        <v>0.4206847093218765</v>
       </c>
       <c r="G79">
-        <v>391.8698749054741</v>
+        <v>7650.636659171597</v>
       </c>
       <c r="H79">
-        <v>409.5246248582759</v>
+        <v>9636.217178482077</v>
       </c>
       <c r="I79">
-        <v>3.072663114359172</v>
+        <v>2.666897723425554</v>
       </c>
       <c r="J79">
-        <v>-0.9375</v>
+        <v>-1.598349056603774</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80">
-        <v>389.2190497962458</v>
+        <v>9028.446069979496</v>
       </c>
       <c r="C80">
-        <v>587.1751459498379</v>
+        <v>12645.23824732175</v>
       </c>
       <c r="D80">
-        <v>-0.625034551500523</v>
+        <v>-1.061909637859439</v>
       </c>
       <c r="E80">
-        <v>1.006587412801397</v>
+        <v>0.8293059658990922</v>
       </c>
       <c r="F80">
-        <v>0.1374674261661836</v>
+        <v>0.5481585573393802</v>
       </c>
       <c r="G80">
-        <v>386.0244141646155</v>
+        <v>7598.313030507217</v>
       </c>
       <c r="H80">
-        <v>409.9281891254066</v>
+        <v>9663.10558071069</v>
       </c>
       <c r="I80">
-        <v>2.994538114359172</v>
+        <v>2.533701968708573</v>
       </c>
       <c r="J80">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="81" spans="2:10">
       <c r="B81">
-        <v>418.0739469458347</v>
+        <v>9413.049245061571</v>
       </c>
       <c r="C81">
-        <v>577.4126298775743</v>
+        <v>13137.02059787599</v>
       </c>
       <c r="D81">
-        <v>-0.3095437227670886</v>
+        <v>-0.5472836620629159</v>
       </c>
       <c r="E81">
-        <v>1.004482595901674</v>
+        <v>0.7732780341438946</v>
       </c>
       <c r="F81">
-        <v>0.1573312368165318</v>
+        <v>0.6398888775794334</v>
       </c>
       <c r="G81">
-        <v>383.1263469215509</v>
+        <v>7574.16836342447</v>
       </c>
       <c r="H81">
-        <v>410.3574618852372</v>
+        <v>9679.905048684921</v>
       </c>
       <c r="I81">
-        <v>2.955475614359172</v>
+        <v>2.467104091350082</v>
       </c>
       <c r="J81">
-        <v>-0.3125</v>
+        <v>-0.5327830188679246</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82">
-        <v>418.773022256039</v>
+        <v>9698.910985189106</v>
       </c>
       <c r="C82">
-        <v>610.8039926472795</v>
+        <v>12904.51464582832</v>
       </c>
       <c r="D82">
-        <v>0.0006132617558761052</v>
+        <v>-0.005078452178951429</v>
       </c>
       <c r="E82">
-        <v>1.005732403941553</v>
+        <v>0.780958462452468</v>
       </c>
       <c r="F82">
-        <v>0.1946745009791659</v>
+        <v>0.6063224859719674</v>
       </c>
       <c r="G82">
-        <v>383.1263469215509</v>
+        <v>7574.16836342447</v>
       </c>
       <c r="H82">
-        <v>410.3574618852372</v>
+        <v>9679.905048684921</v>
       </c>
       <c r="I82">
-        <v>2.955475614359172</v>
+        <v>2.467104091350082</v>
       </c>
       <c r="J82">
         <v>0</v>
